--- a/11b.xlsx
+++ b/11b.xlsx
@@ -8,83 +8,149 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E81EF-E6D2-4EBE-9F0A-69ADDE429B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F20907-44E1-4F3E-BC78-D1B3AE417503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12112" yWindow="3323" windowWidth="24818" windowHeight="16200" xr2:uid="{E506FC9D-AA57-43B8-908F-EF796AC765DD}"/>
+    <workbookView xWindow="11258" yWindow="1927" windowWidth="25814" windowHeight="16201" activeTab="1" xr2:uid="{E506FC9D-AA57-43B8-908F-EF796AC765DD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="年齢と利用時間" sheetId="1" r:id="rId1"/>
+    <sheet name="クラスタリング" sheetId="2" r:id="rId2"/>
+    <sheet name="時間を集計" sheetId="3" r:id="rId3"/>
+    <sheet name="人数を集計" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="F10P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F10P">Sheet1!#REF!</definedName>
-    <definedName name="F10S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F10S">Sheet1!#REF!</definedName>
-    <definedName name="F20P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F20P">Sheet1!#REF!</definedName>
-    <definedName name="F20S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F20S">Sheet1!#REF!</definedName>
-    <definedName name="F30P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F30P">Sheet1!#REF!</definedName>
-    <definedName name="F30S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F30S">Sheet1!#REF!</definedName>
-    <definedName name="F40P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F40P">Sheet1!#REF!</definedName>
-    <definedName name="F40S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F40S">Sheet1!#REF!</definedName>
-    <definedName name="F50P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F50P">Sheet1!#REF!</definedName>
-    <definedName name="F50S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F50S">Sheet1!#REF!</definedName>
-    <definedName name="F60P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F60P">Sheet1!#REF!</definedName>
-    <definedName name="F60S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F60S">Sheet1!#REF!</definedName>
-    <definedName name="F70P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F70P">Sheet1!#REF!</definedName>
-    <definedName name="F70S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F70S">Sheet1!#REF!</definedName>
-    <definedName name="F80P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F80P">Sheet1!#REF!</definedName>
-    <definedName name="F80S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="F80S">Sheet1!#REF!</definedName>
-    <definedName name="M10P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M10P">Sheet1!#REF!</definedName>
-    <definedName name="M10S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M10S">Sheet1!#REF!</definedName>
-    <definedName name="M20P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M20P">Sheet1!#REF!</definedName>
-    <definedName name="M20S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M20S">Sheet1!#REF!</definedName>
-    <definedName name="M30P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M30P">Sheet1!#REF!</definedName>
-    <definedName name="M30S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M30S">Sheet1!#REF!</definedName>
-    <definedName name="M40P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M40P">Sheet1!#REF!</definedName>
-    <definedName name="M40S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M40S">Sheet1!#REF!</definedName>
-    <definedName name="M50P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M50P">Sheet1!#REF!</definedName>
-    <definedName name="M50S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M50S">Sheet1!#REF!</definedName>
-    <definedName name="M60P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M60P">Sheet1!#REF!</definedName>
-    <definedName name="M60S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M60S">Sheet1!#REF!</definedName>
-    <definedName name="M70P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M70P">Sheet1!#REF!</definedName>
-    <definedName name="M70S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M70S">Sheet1!#REF!</definedName>
-    <definedName name="M80P" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M80P">Sheet1!#REF!</definedName>
-    <definedName name="M80S" localSheetId="1">Sheet2!#REF!</definedName>
-    <definedName name="M80S">Sheet1!#REF!</definedName>
+    <definedName name="F10P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F10P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F10P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F10P">年齢と利用時間!#REF!</definedName>
+    <definedName name="F10S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F10S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F10S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F10S">年齢と利用時間!#REF!</definedName>
+    <definedName name="F20P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F20P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F20P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F20P">年齢と利用時間!#REF!</definedName>
+    <definedName name="F20S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F20S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F20S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F20S">年齢と利用時間!#REF!</definedName>
+    <definedName name="F30P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F30P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F30P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F30P">年齢と利用時間!#REF!</definedName>
+    <definedName name="F30S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F30S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F30S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F30S">年齢と利用時間!#REF!</definedName>
+    <definedName name="F40P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F40P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F40P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F40P">年齢と利用時間!#REF!</definedName>
+    <definedName name="F40S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F40S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F40S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F40S">年齢と利用時間!#REF!</definedName>
+    <definedName name="F50P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F50P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F50P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F50P">年齢と利用時間!#REF!</definedName>
+    <definedName name="F50S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F50S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F50S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F50S">年齢と利用時間!#REF!</definedName>
+    <definedName name="F60P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F60P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F60P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F60P">年齢と利用時間!#REF!</definedName>
+    <definedName name="F60S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F60S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F60S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F60S">年齢と利用時間!#REF!</definedName>
+    <definedName name="F70P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F70P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F70P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F70P">年齢と利用時間!#REF!</definedName>
+    <definedName name="F70S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F70S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F70S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F70S">年齢と利用時間!#REF!</definedName>
+    <definedName name="F80P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F80P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F80P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F80P">年齢と利用時間!#REF!</definedName>
+    <definedName name="F80S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="F80S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="F80S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="F80S">年齢と利用時間!#REF!</definedName>
+    <definedName name="M10P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M10P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M10P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M10P">年齢と利用時間!#REF!</definedName>
+    <definedName name="M10S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M10S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M10S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M10S">年齢と利用時間!#REF!</definedName>
+    <definedName name="M20P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M20P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M20P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M20P">年齢と利用時間!#REF!</definedName>
+    <definedName name="M20S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M20S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M20S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M20S">年齢と利用時間!#REF!</definedName>
+    <definedName name="M30P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M30P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M30P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M30P">年齢と利用時間!#REF!</definedName>
+    <definedName name="M30S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M30S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M30S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M30S">年齢と利用時間!#REF!</definedName>
+    <definedName name="M40P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M40P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M40P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M40P">年齢と利用時間!#REF!</definedName>
+    <definedName name="M40S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M40S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M40S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M40S">年齢と利用時間!#REF!</definedName>
+    <definedName name="M50P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M50P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M50P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M50P">年齢と利用時間!#REF!</definedName>
+    <definedName name="M50S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M50S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M50S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M50S">年齢と利用時間!#REF!</definedName>
+    <definedName name="M60P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M60P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M60P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M60P">年齢と利用時間!#REF!</definedName>
+    <definedName name="M60S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M60S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M60S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M60S">年齢と利用時間!#REF!</definedName>
+    <definedName name="M70P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M70P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M70P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M70P">年齢と利用時間!#REF!</definedName>
+    <definedName name="M70S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M70S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M70S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M70S">年齢と利用時間!#REF!</definedName>
+    <definedName name="M80P" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M80P" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M80P" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M80P">年齢と利用時間!#REF!</definedName>
+    <definedName name="M80S" localSheetId="1">クラスタリング!#REF!</definedName>
+    <definedName name="M80S" localSheetId="2">時間を集計!#REF!</definedName>
+    <definedName name="M80S" localSheetId="3">人数を集計!#REF!</definedName>
+    <definedName name="M80S">年齢と利用時間!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -104,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="21">
   <si>
     <t>M</t>
     <phoneticPr fontId="1"/>
@@ -172,11 +238,17 @@
   <si>
     <t>90-100</t>
   </si>
+  <si>
+    <t>平均 / Minutes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,11 +328,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -274,9 +401,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="羽山博" refreshedDate="45237.354467245372" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="160" xr:uid="{B9C7C39B-694A-4E10-A7BC-F741651E849F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="羽山博" refreshedDate="45237.444061689814" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="160" xr:uid="{B9C7C39B-694A-4E10-A7BC-F741651E849F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E161" sheet="Sheet2"/>
+    <worksheetSource ref="A1:E161" sheet="クラスタリング"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="No." numFmtId="0">
@@ -370,16 +497,125 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="Minutes" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="287"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="287" count="108">
+        <n v="55"/>
+        <n v="24"/>
+        <n v="240"/>
+        <n v="99"/>
+        <n v="154"/>
+        <n v="98"/>
+        <n v="174"/>
+        <n v="203"/>
+        <n v="49"/>
+        <n v="78"/>
+        <n v="184"/>
+        <n v="207"/>
+        <n v="126"/>
+        <n v="81"/>
+        <n v="124"/>
+        <n v="215"/>
+        <n v="146"/>
+        <n v="46"/>
+        <n v="12"/>
+        <n v="73"/>
+        <n v="103"/>
+        <n v="85"/>
+        <n v="167"/>
+        <n v="93"/>
+        <n v="136"/>
+        <n v="234"/>
+        <n v="213"/>
+        <n v="254"/>
+        <n v="149"/>
+        <n v="20"/>
+        <n v="224"/>
+        <n v="140"/>
+        <n v="31"/>
+        <n v="96"/>
+        <n v="14"/>
+        <n v="147"/>
+        <n v="157"/>
+        <n v="155"/>
+        <n v="187"/>
+        <n v="51"/>
+        <n v="63"/>
+        <n v="127"/>
+        <n v="112"/>
+        <n v="198"/>
+        <n v="28"/>
+        <n v="97"/>
+        <n v="67"/>
+        <n v="106"/>
+        <n v="104"/>
+        <n v="35"/>
+        <n v="120"/>
+        <n v="11"/>
+        <n v="141"/>
+        <n v="116"/>
+        <n v="77"/>
+        <n v="90"/>
+        <n v="183"/>
+        <n v="163"/>
+        <n v="70"/>
+        <n v="123"/>
+        <n v="56"/>
+        <n v="72"/>
+        <n v="59"/>
+        <n v="287"/>
+        <n v="202"/>
+        <n v="129"/>
+        <n v="206"/>
+        <n v="87"/>
+        <n v="158"/>
+        <n v="40"/>
+        <n v="80"/>
+        <n v="222"/>
+        <n v="110"/>
+        <n v="107"/>
+        <n v="76"/>
+        <n v="130"/>
+        <n v="194"/>
+        <n v="10"/>
+        <n v="169"/>
+        <n v="64"/>
+        <n v="185"/>
+        <n v="166"/>
+        <n v="100"/>
+        <n v="69"/>
+        <n v="86"/>
+        <n v="115"/>
+        <n v="152"/>
+        <n v="92"/>
+        <n v="177"/>
+        <n v="151"/>
+        <n v="62"/>
+        <n v="121"/>
+        <n v="32"/>
+        <n v="131"/>
+        <n v="144"/>
+        <n v="34"/>
+        <n v="128"/>
+        <n v="83"/>
+        <n v="145"/>
+        <n v="161"/>
+        <n v="247"/>
+        <n v="30"/>
+        <n v="156"/>
+        <n v="143"/>
+        <n v="122"/>
+        <n v="134"/>
+        <n v="148"/>
+        <n v="211"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Group" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="6">
         <n v="5"/>
+        <n v="1"/>
+        <n v="3"/>
+        <n v="2"/>
+        <n v="4"/>
         <n v="0"/>
-        <n v="4"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -397,1127 +633,1290 @@
     <n v="1"/>
     <s v="F"/>
     <x v="0"/>
-    <n v="55"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <n v="2"/>
     <s v="M"/>
     <x v="1"/>
-    <n v="24"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <n v="3"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="240"/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
     <n v="4"/>
     <s v="F"/>
     <x v="3"/>
-    <n v="99"/>
+    <x v="3"/>
     <x v="3"/>
   </r>
   <r>
     <n v="5"/>
     <s v="M"/>
     <x v="3"/>
-    <n v="154"/>
+    <x v="4"/>
     <x v="4"/>
   </r>
   <r>
     <n v="6"/>
     <s v="M"/>
     <x v="4"/>
-    <n v="98"/>
-    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="7"/>
     <s v="M"/>
     <x v="5"/>
-    <n v="174"/>
-    <x v="5"/>
+    <x v="6"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="8"/>
     <s v="M"/>
     <x v="6"/>
-    <n v="203"/>
-    <x v="5"/>
+    <x v="7"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="9"/>
     <s v="F"/>
     <x v="7"/>
-    <n v="49"/>
-    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="10"/>
     <s v="F"/>
     <x v="8"/>
-    <n v="78"/>
-    <x v="0"/>
+    <x v="9"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="11"/>
     <s v="F"/>
     <x v="9"/>
-    <n v="24"/>
     <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="12"/>
     <s v="M"/>
     <x v="10"/>
-    <n v="184"/>
-    <x v="5"/>
+    <x v="10"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="13"/>
     <s v="M"/>
     <x v="11"/>
-    <n v="207"/>
-    <x v="5"/>
+    <x v="11"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="14"/>
     <s v="M"/>
     <x v="12"/>
-    <n v="126"/>
+    <x v="12"/>
     <x v="4"/>
   </r>
   <r>
     <n v="15"/>
     <s v="M"/>
     <x v="7"/>
-    <n v="81"/>
+    <x v="13"/>
     <x v="0"/>
   </r>
   <r>
     <n v="16"/>
     <s v="M"/>
     <x v="13"/>
-    <n v="124"/>
-    <x v="3"/>
+    <x v="14"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="17"/>
     <s v="F"/>
     <x v="14"/>
-    <n v="215"/>
+    <x v="15"/>
     <x v="2"/>
   </r>
   <r>
     <n v="18"/>
     <s v="M"/>
     <x v="15"/>
-    <n v="146"/>
-    <x v="4"/>
+    <x v="16"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="19"/>
     <s v="F"/>
     <x v="7"/>
-    <n v="46"/>
-    <x v="1"/>
+    <x v="17"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="20"/>
     <s v="F"/>
     <x v="12"/>
-    <n v="55"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <n v="21"/>
     <s v="F"/>
     <x v="16"/>
-    <n v="46"/>
-    <x v="1"/>
+    <x v="17"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="22"/>
     <s v="F"/>
     <x v="7"/>
-    <n v="12"/>
-    <x v="1"/>
+    <x v="18"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="23"/>
     <s v="F"/>
     <x v="17"/>
-    <n v="73"/>
+    <x v="19"/>
     <x v="0"/>
   </r>
   <r>
     <n v="24"/>
     <s v="F"/>
     <x v="18"/>
-    <n v="103"/>
+    <x v="20"/>
     <x v="3"/>
   </r>
   <r>
     <n v="25"/>
     <s v="F"/>
     <x v="19"/>
-    <n v="85"/>
+    <x v="21"/>
     <x v="0"/>
   </r>
   <r>
     <n v="26"/>
     <s v="M"/>
     <x v="20"/>
-    <n v="167"/>
-    <x v="5"/>
+    <x v="22"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="27"/>
     <s v="F"/>
     <x v="21"/>
-    <n v="24"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <n v="28"/>
     <s v="M"/>
     <x v="6"/>
-    <n v="154"/>
     <x v="4"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="29"/>
     <s v="F"/>
     <x v="22"/>
-    <n v="93"/>
+    <x v="23"/>
     <x v="3"/>
   </r>
   <r>
     <n v="30"/>
     <s v="M"/>
     <x v="23"/>
-    <n v="136"/>
+    <x v="24"/>
     <x v="4"/>
   </r>
   <r>
     <n v="31"/>
     <s v="F"/>
     <x v="13"/>
-    <n v="234"/>
+    <x v="25"/>
     <x v="2"/>
   </r>
   <r>
     <n v="32"/>
     <s v="F"/>
     <x v="21"/>
-    <n v="213"/>
+    <x v="26"/>
     <x v="2"/>
   </r>
   <r>
     <n v="33"/>
     <s v="F"/>
     <x v="11"/>
-    <n v="254"/>
+    <x v="27"/>
     <x v="2"/>
   </r>
   <r>
     <n v="34"/>
     <s v="M"/>
     <x v="15"/>
-    <n v="149"/>
-    <x v="4"/>
+    <x v="28"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="35"/>
     <s v="F"/>
     <x v="24"/>
-    <n v="20"/>
-    <x v="1"/>
+    <x v="29"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="36"/>
     <s v="M"/>
     <x v="25"/>
-    <n v="224"/>
+    <x v="30"/>
     <x v="2"/>
   </r>
   <r>
     <n v="37"/>
     <s v="M"/>
     <x v="4"/>
-    <n v="140"/>
-    <x v="4"/>
+    <x v="31"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="38"/>
     <s v="F"/>
     <x v="26"/>
-    <n v="31"/>
-    <x v="1"/>
+    <x v="32"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="39"/>
     <s v="M"/>
     <x v="27"/>
-    <n v="96"/>
-    <x v="3"/>
+    <x v="33"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="40"/>
     <s v="M"/>
     <x v="28"/>
-    <n v="20"/>
-    <x v="1"/>
+    <x v="29"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="41"/>
     <s v="F"/>
     <x v="22"/>
-    <n v="14"/>
-    <x v="1"/>
+    <x v="34"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="42"/>
     <s v="M"/>
     <x v="29"/>
-    <n v="147"/>
-    <x v="4"/>
+    <x v="35"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="43"/>
     <s v="M"/>
     <x v="30"/>
-    <n v="157"/>
-    <x v="4"/>
+    <x v="36"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="44"/>
     <s v="F"/>
     <x v="31"/>
-    <n v="155"/>
-    <x v="5"/>
+    <x v="37"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="45"/>
     <s v="M"/>
     <x v="31"/>
-    <n v="187"/>
-    <x v="5"/>
+    <x v="38"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="46"/>
     <s v="M"/>
     <x v="32"/>
-    <n v="147"/>
-    <x v="5"/>
+    <x v="35"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="47"/>
     <s v="F"/>
     <x v="33"/>
-    <n v="51"/>
-    <x v="1"/>
+    <x v="39"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="48"/>
     <s v="M"/>
     <x v="28"/>
-    <n v="63"/>
-    <x v="0"/>
+    <x v="40"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="49"/>
     <s v="M"/>
     <x v="17"/>
-    <n v="149"/>
+    <x v="28"/>
     <x v="4"/>
   </r>
   <r>
     <n v="50"/>
     <s v="M"/>
     <x v="0"/>
-    <n v="127"/>
+    <x v="41"/>
     <x v="4"/>
   </r>
   <r>
     <n v="51"/>
     <s v="F"/>
     <x v="34"/>
-    <n v="187"/>
-    <x v="5"/>
+    <x v="38"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="52"/>
     <s v="F"/>
     <x v="35"/>
-    <n v="46"/>
-    <x v="1"/>
+    <x v="17"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="53"/>
     <s v="F"/>
     <x v="1"/>
-    <n v="112"/>
+    <x v="42"/>
     <x v="3"/>
   </r>
   <r>
     <n v="54"/>
     <s v="M"/>
     <x v="30"/>
-    <n v="198"/>
-    <x v="5"/>
+    <x v="43"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="55"/>
     <s v="F"/>
     <x v="26"/>
-    <n v="28"/>
-    <x v="1"/>
+    <x v="44"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="56"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="97"/>
-    <x v="3"/>
+    <x v="45"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="57"/>
     <s v="F"/>
     <x v="36"/>
-    <n v="67"/>
-    <x v="0"/>
+    <x v="46"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="58"/>
     <s v="M"/>
     <x v="37"/>
-    <n v="106"/>
-    <x v="3"/>
+    <x v="47"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="59"/>
     <s v="F"/>
     <x v="15"/>
-    <n v="24"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <n v="60"/>
     <s v="F"/>
     <x v="38"/>
-    <n v="104"/>
+    <x v="48"/>
     <x v="3"/>
   </r>
   <r>
     <n v="61"/>
     <s v="F"/>
     <x v="39"/>
-    <n v="35"/>
-    <x v="1"/>
+    <x v="49"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="62"/>
     <s v="M"/>
     <x v="40"/>
-    <n v="154"/>
-    <x v="5"/>
+    <x v="4"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="63"/>
     <s v="F"/>
     <x v="41"/>
-    <n v="98"/>
+    <x v="5"/>
     <x v="0"/>
   </r>
   <r>
     <n v="64"/>
     <s v="F"/>
     <x v="12"/>
-    <n v="120"/>
+    <x v="50"/>
     <x v="4"/>
   </r>
   <r>
     <n v="65"/>
     <s v="F"/>
     <x v="42"/>
-    <n v="11"/>
-    <x v="1"/>
+    <x v="51"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="66"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="106"/>
-    <x v="3"/>
+    <x v="47"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="67"/>
     <s v="F"/>
     <x v="43"/>
-    <n v="141"/>
-    <x v="4"/>
+    <x v="52"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="68"/>
     <s v="F"/>
     <x v="29"/>
-    <n v="93"/>
+    <x v="23"/>
     <x v="3"/>
   </r>
   <r>
     <n v="69"/>
     <s v="M"/>
     <x v="5"/>
-    <n v="116"/>
+    <x v="53"/>
     <x v="3"/>
   </r>
   <r>
     <n v="70"/>
     <s v="M"/>
     <x v="24"/>
-    <n v="77"/>
+    <x v="54"/>
     <x v="0"/>
   </r>
   <r>
     <n v="71"/>
     <s v="F"/>
     <x v="44"/>
-    <n v="90"/>
+    <x v="55"/>
     <x v="0"/>
   </r>
   <r>
     <n v="72"/>
     <s v="M"/>
     <x v="41"/>
-    <n v="183"/>
-    <x v="5"/>
+    <x v="56"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="73"/>
     <s v="M"/>
     <x v="32"/>
-    <n v="163"/>
-    <x v="5"/>
+    <x v="57"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="74"/>
     <s v="F"/>
     <x v="45"/>
-    <n v="184"/>
-    <x v="5"/>
+    <x v="10"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="75"/>
     <s v="F"/>
     <x v="44"/>
-    <n v="70"/>
+    <x v="58"/>
     <x v="0"/>
   </r>
   <r>
     <n v="76"/>
     <s v="M"/>
     <x v="36"/>
-    <n v="123"/>
+    <x v="59"/>
     <x v="3"/>
   </r>
   <r>
     <n v="77"/>
     <s v="M"/>
     <x v="28"/>
-    <n v="56"/>
-    <x v="0"/>
+    <x v="60"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="78"/>
     <s v="M"/>
     <x v="46"/>
-    <n v="120"/>
-    <x v="3"/>
+    <x v="50"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="79"/>
     <s v="M"/>
     <x v="47"/>
-    <n v="72"/>
+    <x v="61"/>
     <x v="0"/>
   </r>
   <r>
     <n v="80"/>
     <s v="M"/>
     <x v="48"/>
-    <n v="99"/>
     <x v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="81"/>
     <s v="F"/>
     <x v="49"/>
-    <n v="141"/>
+    <x v="52"/>
     <x v="4"/>
   </r>
   <r>
     <n v="82"/>
     <s v="M"/>
     <x v="47"/>
-    <n v="59"/>
+    <x v="62"/>
     <x v="0"/>
   </r>
   <r>
     <n v="83"/>
     <s v="M"/>
     <x v="2"/>
-    <n v="287"/>
+    <x v="63"/>
     <x v="2"/>
   </r>
   <r>
     <n v="84"/>
     <s v="F"/>
     <x v="15"/>
-    <n v="103"/>
+    <x v="20"/>
     <x v="3"/>
   </r>
   <r>
     <n v="85"/>
     <s v="M"/>
     <x v="32"/>
-    <n v="202"/>
-    <x v="5"/>
+    <x v="64"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="86"/>
     <s v="M"/>
     <x v="11"/>
-    <n v="207"/>
-    <x v="5"/>
+    <x v="11"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="87"/>
     <s v="M"/>
     <x v="50"/>
-    <n v="129"/>
+    <x v="65"/>
     <x v="4"/>
   </r>
   <r>
     <n v="88"/>
     <s v="M"/>
     <x v="27"/>
-    <n v="206"/>
-    <x v="5"/>
+    <x v="66"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="89"/>
     <s v="F"/>
     <x v="46"/>
-    <n v="147"/>
-    <x v="5"/>
+    <x v="35"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="90"/>
     <s v="M"/>
     <x v="11"/>
-    <n v="87"/>
-    <x v="3"/>
+    <x v="67"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="91"/>
     <s v="F"/>
     <x v="49"/>
-    <n v="158"/>
+    <x v="68"/>
     <x v="4"/>
   </r>
   <r>
     <n v="92"/>
     <s v="M"/>
     <x v="7"/>
-    <n v="77"/>
+    <x v="54"/>
     <x v="0"/>
   </r>
   <r>
     <n v="93"/>
     <s v="F"/>
     <x v="42"/>
-    <n v="40"/>
-    <x v="1"/>
+    <x v="69"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="94"/>
     <s v="F"/>
     <x v="49"/>
-    <n v="80"/>
+    <x v="70"/>
     <x v="0"/>
   </r>
   <r>
     <n v="95"/>
     <s v="M"/>
     <x v="36"/>
-    <n v="174"/>
-    <x v="5"/>
+    <x v="6"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="96"/>
     <s v="F"/>
     <x v="4"/>
-    <n v="222"/>
+    <x v="71"/>
     <x v="2"/>
   </r>
   <r>
     <n v="97"/>
     <s v="F"/>
     <x v="32"/>
-    <n v="222"/>
+    <x v="71"/>
     <x v="2"/>
   </r>
   <r>
     <n v="98"/>
     <s v="F"/>
     <x v="5"/>
-    <n v="59"/>
+    <x v="62"/>
     <x v="0"/>
   </r>
   <r>
     <n v="99"/>
     <s v="F"/>
     <x v="51"/>
-    <n v="20"/>
-    <x v="1"/>
+    <x v="29"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="100"/>
     <s v="F"/>
     <x v="49"/>
-    <n v="110"/>
-    <x v="3"/>
+    <x v="72"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="101"/>
     <s v="F"/>
     <x v="8"/>
-    <n v="110"/>
+    <x v="72"/>
     <x v="3"/>
   </r>
   <r>
     <n v="102"/>
     <s v="F"/>
     <x v="35"/>
-    <n v="120"/>
+    <x v="50"/>
     <x v="4"/>
   </r>
   <r>
     <n v="103"/>
     <s v="F"/>
     <x v="30"/>
-    <n v="107"/>
+    <x v="73"/>
     <x v="3"/>
   </r>
   <r>
     <n v="104"/>
     <s v="M"/>
     <x v="9"/>
-    <n v="63"/>
-    <x v="0"/>
+    <x v="40"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="105"/>
     <s v="M"/>
     <x v="24"/>
-    <n v="76"/>
+    <x v="74"/>
     <x v="0"/>
   </r>
   <r>
     <n v="106"/>
     <s v="F"/>
     <x v="1"/>
-    <n v="12"/>
+    <x v="18"/>
     <x v="1"/>
   </r>
   <r>
     <n v="107"/>
     <s v="F"/>
     <x v="52"/>
-    <n v="130"/>
-    <x v="3"/>
+    <x v="75"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="108"/>
     <s v="M"/>
     <x v="45"/>
-    <n v="194"/>
-    <x v="5"/>
+    <x v="76"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="109"/>
     <s v="M"/>
     <x v="9"/>
-    <n v="10"/>
-    <x v="1"/>
+    <x v="77"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="110"/>
     <s v="M"/>
     <x v="25"/>
-    <n v="169"/>
-    <x v="5"/>
+    <x v="78"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="111"/>
     <s v="M"/>
     <x v="33"/>
-    <n v="64"/>
+    <x v="79"/>
     <x v="0"/>
   </r>
   <r>
     <n v="112"/>
     <s v="F"/>
     <x v="46"/>
-    <n v="185"/>
-    <x v="5"/>
+    <x v="80"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="113"/>
     <s v="F"/>
     <x v="16"/>
-    <n v="90"/>
+    <x v="55"/>
     <x v="0"/>
   </r>
   <r>
     <n v="114"/>
     <s v="F"/>
     <x v="21"/>
-    <n v="166"/>
-    <x v="5"/>
+    <x v="81"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="115"/>
     <s v="F"/>
     <x v="30"/>
-    <n v="100"/>
+    <x v="82"/>
     <x v="3"/>
   </r>
   <r>
     <n v="116"/>
     <s v="M"/>
     <x v="51"/>
-    <n v="69"/>
-    <x v="0"/>
+    <x v="83"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="117"/>
     <s v="F"/>
     <x v="21"/>
-    <n v="187"/>
-    <x v="5"/>
+    <x v="38"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="118"/>
     <s v="M"/>
     <x v="53"/>
-    <n v="86"/>
+    <x v="84"/>
     <x v="0"/>
   </r>
   <r>
     <n v="119"/>
     <s v="F"/>
     <x v="54"/>
-    <n v="100"/>
+    <x v="82"/>
     <x v="3"/>
   </r>
   <r>
     <n v="120"/>
     <s v="F"/>
     <x v="55"/>
-    <n v="115"/>
+    <x v="85"/>
     <x v="3"/>
   </r>
   <r>
     <n v="121"/>
     <s v="M"/>
     <x v="12"/>
-    <n v="152"/>
+    <x v="86"/>
     <x v="4"/>
   </r>
   <r>
     <n v="122"/>
     <s v="F"/>
     <x v="41"/>
-    <n v="92"/>
+    <x v="87"/>
     <x v="0"/>
   </r>
   <r>
     <n v="123"/>
     <s v="F"/>
     <x v="43"/>
-    <n v="177"/>
-    <x v="5"/>
+    <x v="88"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="124"/>
     <s v="F"/>
     <x v="23"/>
-    <n v="187"/>
-    <x v="5"/>
+    <x v="38"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="125"/>
     <s v="M"/>
     <x v="56"/>
-    <n v="149"/>
+    <x v="28"/>
     <x v="4"/>
   </r>
   <r>
     <n v="126"/>
     <s v="M"/>
     <x v="46"/>
-    <n v="151"/>
-    <x v="5"/>
+    <x v="89"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="127"/>
     <s v="M"/>
     <x v="24"/>
-    <n v="62"/>
+    <x v="90"/>
     <x v="0"/>
   </r>
   <r>
     <n v="128"/>
     <s v="M"/>
     <x v="57"/>
-    <n v="81"/>
+    <x v="13"/>
     <x v="0"/>
   </r>
   <r>
     <n v="129"/>
     <s v="M"/>
     <x v="26"/>
-    <n v="121"/>
+    <x v="91"/>
     <x v="4"/>
   </r>
   <r>
     <n v="130"/>
     <s v="M"/>
     <x v="58"/>
-    <n v="183"/>
-    <x v="5"/>
+    <x v="56"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="131"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="110"/>
-    <x v="3"/>
+    <x v="72"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="132"/>
     <s v="M"/>
     <x v="15"/>
-    <n v="194"/>
-    <x v="5"/>
+    <x v="76"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="133"/>
     <s v="F"/>
     <x v="24"/>
-    <n v="32"/>
-    <x v="1"/>
+    <x v="92"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="134"/>
     <s v="M"/>
     <x v="58"/>
-    <n v="131"/>
-    <x v="4"/>
+    <x v="93"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="135"/>
     <s v="F"/>
     <x v="50"/>
-    <n v="32"/>
-    <x v="1"/>
+    <x v="92"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="136"/>
     <s v="M"/>
     <x v="6"/>
-    <n v="144"/>
-    <x v="4"/>
+    <x v="94"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="137"/>
     <s v="F"/>
     <x v="53"/>
-    <n v="49"/>
-    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="138"/>
     <s v="M"/>
     <x v="16"/>
-    <n v="124"/>
+    <x v="14"/>
     <x v="4"/>
   </r>
   <r>
     <n v="139"/>
     <s v="F"/>
     <x v="59"/>
-    <n v="34"/>
-    <x v="1"/>
+    <x v="95"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="140"/>
     <s v="F"/>
     <x v="60"/>
-    <n v="20"/>
-    <x v="1"/>
+    <x v="29"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="141"/>
     <s v="M"/>
     <x v="61"/>
-    <n v="128"/>
+    <x v="96"/>
     <x v="4"/>
   </r>
   <r>
     <n v="142"/>
     <s v="F"/>
     <x v="6"/>
-    <n v="83"/>
-    <x v="0"/>
+    <x v="97"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="143"/>
     <s v="M"/>
     <x v="28"/>
-    <n v="72"/>
-    <x v="0"/>
+    <x v="61"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="144"/>
     <s v="M"/>
     <x v="22"/>
-    <n v="145"/>
+    <x v="98"/>
     <x v="4"/>
   </r>
   <r>
     <n v="145"/>
     <s v="M"/>
     <x v="56"/>
-    <n v="161"/>
+    <x v="99"/>
     <x v="4"/>
   </r>
   <r>
     <n v="146"/>
     <s v="M"/>
     <x v="10"/>
-    <n v="247"/>
+    <x v="100"/>
     <x v="2"/>
   </r>
   <r>
     <n v="147"/>
     <s v="M"/>
     <x v="42"/>
-    <n v="30"/>
-    <x v="1"/>
+    <x v="101"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="148"/>
     <s v="M"/>
     <x v="3"/>
-    <n v="156"/>
+    <x v="102"/>
     <x v="4"/>
   </r>
   <r>
     <n v="149"/>
     <s v="F"/>
     <x v="62"/>
-    <n v="143"/>
-    <x v="4"/>
+    <x v="103"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="150"/>
     <s v="M"/>
     <x v="8"/>
-    <n v="122"/>
+    <x v="104"/>
     <x v="3"/>
   </r>
   <r>
     <n v="151"/>
     <s v="M"/>
     <x v="21"/>
-    <n v="129"/>
-    <x v="3"/>
+    <x v="65"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="152"/>
     <s v="M"/>
     <x v="21"/>
-    <n v="30"/>
+    <x v="101"/>
     <x v="1"/>
   </r>
   <r>
     <n v="153"/>
     <s v="M"/>
     <x v="60"/>
-    <n v="69"/>
-    <x v="0"/>
+    <x v="83"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="154"/>
     <s v="M"/>
     <x v="12"/>
-    <n v="134"/>
+    <x v="105"/>
     <x v="4"/>
   </r>
   <r>
     <n v="155"/>
     <s v="M"/>
     <x v="12"/>
-    <n v="148"/>
+    <x v="106"/>
     <x v="4"/>
   </r>
   <r>
     <n v="156"/>
     <s v="F"/>
     <x v="14"/>
-    <n v="211"/>
+    <x v="107"/>
     <x v="2"/>
   </r>
   <r>
     <n v="157"/>
     <s v="F"/>
     <x v="43"/>
-    <n v="155"/>
-    <x v="4"/>
+    <x v="37"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="158"/>
     <s v="F"/>
     <x v="39"/>
-    <n v="120"/>
+    <x v="50"/>
     <x v="4"/>
   </r>
   <r>
     <n v="159"/>
     <s v="F"/>
     <x v="63"/>
-    <n v="46"/>
-    <x v="1"/>
+    <x v="17"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="160"/>
     <s v="M"/>
     <x v="38"/>
-    <n v="146"/>
-    <x v="4"/>
+    <x v="16"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{110A8D29-36C7-4F05-9161-DCC0446B3196}" name="ピボットテーブル1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{667C724D-9920-4FF1-9AED-1595C49C5549}" name="ピボットテーブル1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G1:Q9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="平均 / Minutes" fld="3" subtotal="average" baseField="4" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="9" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+          </reference>
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="9" selected="0">
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+            </reference>
+            <reference field="4" count="6">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B22ED61-EB8C-4BE4-8C55-9C24E6192D10}" name="ピボットテーブル1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:Q9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -1541,11 +1940,11 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
+        <item x="5"/>
         <item x="1"/>
-        <item x="5"/>
         <item x="3"/>
+        <item x="2"/>
         <item x="4"/>
-        <item x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -1615,6 +2014,26 @@
   <dataFields count="1">
     <dataField name="個数 / No." fld="0" subtotal="count" baseField="4" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="9" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+          </reference>
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <conditionalFormats count="1">
     <conditionalFormat priority="1">
       <pivotAreas count="1">
@@ -1958,7 +2377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EBB679-6460-4EBB-895F-75C6B3821C0E}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
@@ -4225,17 +4644,2767 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1863A906-0507-4952-AC09-5AE16D6E9DA8}">
+  <dimension ref="A1:E161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>240</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>154</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>98</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>174</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>203</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>78</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>83</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>184</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>207</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>126</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>124</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>215</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>146</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>71</v>
+      </c>
+      <c r="D20">
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>103</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>167</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>154</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>93</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <v>136</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>234</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>213</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>254</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>149</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>224</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>140</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>96</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>94</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>147</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>157</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>155</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>187</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>147</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>51</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>94</v>
+      </c>
+      <c r="D49">
+        <v>63</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>149</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>127</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>187</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>86</v>
+      </c>
+      <c r="D53">
+        <v>46</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>112</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>43</v>
+      </c>
+      <c r="D55">
+        <v>198</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>82</v>
+      </c>
+      <c r="D56">
+        <v>28</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>97</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>67</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>65</v>
+      </c>
+      <c r="D59">
+        <v>106</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>36</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>45</v>
+      </c>
+      <c r="D61">
+        <v>104</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>35</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>154</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>98</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>120</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>91</v>
+      </c>
+      <c r="D66">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>106</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>39</v>
+      </c>
+      <c r="D68">
+        <v>141</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>93</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>47</v>
+      </c>
+      <c r="D70">
+        <v>116</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>75</v>
+      </c>
+      <c r="D71">
+        <v>77</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>63</v>
+      </c>
+      <c r="D72">
+        <v>90</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>62</v>
+      </c>
+      <c r="D73">
+        <v>183</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>163</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>23</v>
+      </c>
+      <c r="D75">
+        <v>184</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>63</v>
+      </c>
+      <c r="D76">
+        <v>70</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>123</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>94</v>
+      </c>
+      <c r="D78">
+        <v>56</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>120</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>76</v>
+      </c>
+      <c r="D80">
+        <v>72</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>59</v>
+      </c>
+      <c r="D81">
+        <v>99</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>57</v>
+      </c>
+      <c r="D82">
+        <v>141</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>76</v>
+      </c>
+      <c r="D83">
+        <v>59</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>22</v>
+      </c>
+      <c r="D84">
+        <v>287</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>36</v>
+      </c>
+      <c r="D85">
+        <v>103</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>202</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>26</v>
+      </c>
+      <c r="D87">
+        <v>207</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>67</v>
+      </c>
+      <c r="D88">
+        <v>129</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>33</v>
+      </c>
+      <c r="D89">
+        <v>206</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>17</v>
+      </c>
+      <c r="D90">
+        <v>147</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>26</v>
+      </c>
+      <c r="D91">
+        <v>87</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>57</v>
+      </c>
+      <c r="D92">
+        <v>158</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>71</v>
+      </c>
+      <c r="D93">
+        <v>77</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>91</v>
+      </c>
+      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>57</v>
+      </c>
+      <c r="D95">
+        <v>80</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>174</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>28</v>
+      </c>
+      <c r="D97">
+        <v>222</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+      <c r="D98">
+        <v>222</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>47</v>
+      </c>
+      <c r="D99">
+        <v>59</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>87</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>57</v>
+      </c>
+      <c r="D101">
+        <v>110</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>40</v>
+      </c>
+      <c r="D102">
+        <v>110</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>86</v>
+      </c>
+      <c r="D103">
+        <v>120</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>43</v>
+      </c>
+      <c r="D104">
+        <v>107</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>83</v>
+      </c>
+      <c r="D105">
+        <v>63</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>75</v>
+      </c>
+      <c r="D106">
+        <v>76</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>34</v>
+      </c>
+      <c r="D107">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>21</v>
+      </c>
+      <c r="D108">
+        <v>130</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>23</v>
+      </c>
+      <c r="D109">
+        <v>194</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>83</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>18</v>
+      </c>
+      <c r="D111">
+        <v>169</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>77</v>
+      </c>
+      <c r="D112">
+        <v>64</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>17</v>
+      </c>
+      <c r="D113">
+        <v>185</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>61</v>
+      </c>
+      <c r="D114">
+        <v>90</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+      <c r="D115">
+        <v>166</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>43</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>87</v>
+      </c>
+      <c r="D117">
+        <v>69</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118">
+        <v>187</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>74</v>
+      </c>
+      <c r="D119">
+        <v>86</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>38</v>
+      </c>
+      <c r="D120">
+        <v>100</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>44</v>
+      </c>
+      <c r="D121">
+        <v>115</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>64</v>
+      </c>
+      <c r="D122">
+        <v>152</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>62</v>
+      </c>
+      <c r="D123">
+        <v>92</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>39</v>
+      </c>
+      <c r="D124">
+        <v>177</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>58</v>
+      </c>
+      <c r="D125">
+        <v>187</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>66</v>
+      </c>
+      <c r="D126">
+        <v>149</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>17</v>
+      </c>
+      <c r="D127">
+        <v>151</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>75</v>
+      </c>
+      <c r="D128">
+        <v>62</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>73</v>
+      </c>
+      <c r="D129">
+        <v>81</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>82</v>
+      </c>
+      <c r="D130">
+        <v>121</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>50</v>
+      </c>
+      <c r="D131">
+        <v>183</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>22</v>
+      </c>
+      <c r="D132">
+        <v>110</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>36</v>
+      </c>
+      <c r="D133">
+        <v>194</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>75</v>
+      </c>
+      <c r="D134">
+        <v>32</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>131</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>67</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>46</v>
+      </c>
+      <c r="D137">
+        <v>144</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>74</v>
+      </c>
+      <c r="D138">
+        <v>49</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>61</v>
+      </c>
+      <c r="D139">
+        <v>124</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>80</v>
+      </c>
+      <c r="D140">
+        <v>34</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>90</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>54</v>
+      </c>
+      <c r="D142">
+        <v>128</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>46</v>
+      </c>
+      <c r="D143">
+        <v>83</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>94</v>
+      </c>
+      <c r="D144">
+        <v>72</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>51</v>
+      </c>
+      <c r="D145">
+        <v>145</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>66</v>
+      </c>
+      <c r="D146">
+        <v>161</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>31</v>
+      </c>
+      <c r="D147">
+        <v>247</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>91</v>
+      </c>
+      <c r="D148">
+        <v>30</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>53</v>
+      </c>
+      <c r="D149">
+        <v>156</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>24</v>
+      </c>
+      <c r="D150">
+        <v>143</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>40</v>
+      </c>
+      <c r="D151">
+        <v>122</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>15</v>
+      </c>
+      <c r="D152">
+        <v>129</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>15</v>
+      </c>
+      <c r="D153">
+        <v>30</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>90</v>
+      </c>
+      <c r="D154">
+        <v>69</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>64</v>
+      </c>
+      <c r="D155">
+        <v>134</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>64</v>
+      </c>
+      <c r="D156">
+        <v>148</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>13</v>
+      </c>
+      <c r="D157">
+        <v>211</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>39</v>
+      </c>
+      <c r="D158">
+        <v>155</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>70</v>
+      </c>
+      <c r="D159">
+        <v>120</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>78</v>
+      </c>
+      <c r="D160">
+        <v>46</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>45</v>
+      </c>
+      <c r="D161">
+        <v>146</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A8B51D-4F1F-4D76-A26A-F088C8A9366D}">
   <dimension ref="A1:Q161"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="7" max="7" width="10.4375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="15" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.1875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="7.4375" customWidth="1"/>
     <col min="18" max="71" width="3.25" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -4256,10 +7425,10 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4279,7 +7448,7 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
@@ -4327,36 +7496,28 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
-        <v>2</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5">
-        <v>2</v>
-      </c>
-      <c r="N3" s="5">
-        <v>9</v>
-      </c>
-      <c r="O3" s="5">
-        <v>7</v>
-      </c>
-      <c r="P3" s="5">
-        <v>5</v>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="O3" s="6">
+        <v>36.111111111111114</v>
+      </c>
+      <c r="P3" s="6">
+        <v>42.333333333333336</v>
       </c>
       <c r="Q3" s="5">
-        <v>29</v>
+        <v>37.695652173913047</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.7">
@@ -4373,34 +7534,30 @@
         <v>240</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5">
-        <v>8</v>
-      </c>
-      <c r="J4" s="5">
-        <v>6</v>
-      </c>
-      <c r="K4" s="5">
-        <v>3</v>
-      </c>
-      <c r="L4" s="5">
-        <v>2</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="H4" s="6">
+        <v>85.4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>104.66666666666667</v>
+      </c>
+      <c r="J4" s="6">
+        <v>44.6</v>
+      </c>
+      <c r="K4" s="6">
+        <v>78</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
       <c r="Q4" s="5">
-        <v>29</v>
+        <v>79.764705882352942</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.7">
@@ -4422,29 +7579,25 @@
       <c r="G5" s="4">
         <v>2</v>
       </c>
-      <c r="H5" s="5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5">
-        <v>6</v>
-      </c>
-      <c r="J5" s="5">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5">
-        <v>9</v>
-      </c>
-      <c r="L5" s="5">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
+        <v>141.5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>128.625</v>
+      </c>
+      <c r="K5" s="6">
+        <v>120.06666666666666</v>
+      </c>
+      <c r="L5" s="6">
+        <v>107.66666666666667</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
       <c r="Q5" s="5">
-        <v>28</v>
+        <v>122.71428571428571</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.7">
@@ -4461,36 +7614,30 @@
         <v>154</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="5">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5">
-        <v>10</v>
-      </c>
-      <c r="M6" s="5">
-        <v>9</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5">
-        <v>2</v>
-      </c>
-      <c r="P6" s="5"/>
+      <c r="H6" s="6">
+        <v>189.06666666666666</v>
+      </c>
+      <c r="I6" s="6">
+        <v>204.83333333333334</v>
+      </c>
+      <c r="J6" s="6">
+        <v>195.57142857142858</v>
+      </c>
+      <c r="K6" s="6">
+        <v>200.5</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
       <c r="Q6" s="5">
-        <v>33</v>
+        <v>196.22222222222223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.7">
@@ -4507,28 +7654,32 @@
         <v>98</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="5">
-        <v>6</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
+        <v>174</v>
+      </c>
+      <c r="L7" s="6">
+        <v>147.83333333333334</v>
+      </c>
+      <c r="M7" s="6">
+        <v>139.27272727272728</v>
+      </c>
+      <c r="N7" s="6">
+        <v>120</v>
+      </c>
+      <c r="O7" s="6">
+        <v>120.5</v>
+      </c>
+      <c r="P7" s="6"/>
       <c r="Q7" s="5">
-        <v>11</v>
+        <v>142.25925925925927</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.7">
@@ -4545,36 +7696,30 @@
         <v>174</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>3</v>
-      </c>
-      <c r="L8" s="5">
-        <v>3</v>
-      </c>
-      <c r="M8" s="5">
-        <v>7</v>
-      </c>
-      <c r="N8" s="5">
-        <v>10</v>
-      </c>
-      <c r="O8" s="5">
-        <v>2</v>
-      </c>
-      <c r="P8" s="5">
-        <v>4</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
+        <v>59</v>
+      </c>
+      <c r="L8" s="6">
+        <v>64.2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>73.111111111111114</v>
+      </c>
+      <c r="N8" s="6">
+        <v>65.285714285714292</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="5">
-        <v>30</v>
+        <v>67.310344827586206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.7">
@@ -4591,40 +7736,40 @@
         <v>203</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="5">
-        <v>20</v>
+        <v>163.15</v>
       </c>
       <c r="I9" s="5">
-        <v>20</v>
+        <v>168.45</v>
       </c>
       <c r="J9" s="5">
-        <v>20</v>
+        <v>131.05000000000001</v>
       </c>
       <c r="K9" s="5">
-        <v>20</v>
+        <v>125.65</v>
       </c>
       <c r="L9" s="5">
-        <v>20</v>
+        <v>120.9</v>
       </c>
       <c r="M9" s="5">
-        <v>20</v>
+        <v>109.5</v>
       </c>
       <c r="N9" s="5">
-        <v>20</v>
+        <v>59.75</v>
       </c>
       <c r="O9" s="5">
-        <v>11</v>
+        <v>51.454545454545453</v>
       </c>
       <c r="P9" s="5">
-        <v>9</v>
+        <v>42.333333333333336</v>
       </c>
       <c r="Q9" s="5">
-        <v>160</v>
+        <v>115.72499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.7">
@@ -4641,7 +7786,7 @@
         <v>49</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.7">
@@ -4658,7 +7803,7 @@
         <v>78</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.7">
@@ -4692,7 +7837,7 @@
         <v>184</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.7">
@@ -4709,7 +7854,7 @@
         <v>207</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.7">
@@ -4726,7 +7871,7 @@
         <v>126</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.7">
@@ -4760,7 +7905,7 @@
         <v>124</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.7">
@@ -4777,7 +7922,7 @@
         <v>215</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.7">
@@ -4794,7 +7939,7 @@
         <v>146</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.7">
@@ -4811,7 +7956,7 @@
         <v>46</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.7">
@@ -4845,7 +7990,7 @@
         <v>46</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.7">
@@ -4930,7 +8075,7 @@
         <v>167</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.7">
@@ -4947,7 +8092,7 @@
         <v>24</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.7">
@@ -4964,7 +8109,7 @@
         <v>154</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.7">
@@ -4998,7 +8143,7 @@
         <v>136</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.7">
@@ -5015,7 +8160,7 @@
         <v>234</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.7">
@@ -5032,7 +8177,7 @@
         <v>213</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.7">
@@ -5049,7 +8194,7 @@
         <v>254</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.7">
@@ -5066,7 +8211,7 @@
         <v>149</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.7">
@@ -5100,7 +8245,7 @@
         <v>224</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.7">
@@ -5117,7 +8262,7 @@
         <v>140</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.7">
@@ -5151,7 +8296,7 @@
         <v>96</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.7">
@@ -5185,7 +8330,7 @@
         <v>14</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.7">
@@ -5202,7 +8347,7 @@
         <v>147</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.7">
@@ -5219,7 +8364,7 @@
         <v>157</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.7">
@@ -5236,7 +8381,7 @@
         <v>155</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.7">
@@ -5253,7 +8398,7 @@
         <v>187</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.7">
@@ -5270,7 +8415,7 @@
         <v>147</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.7">
@@ -5304,7 +8449,7 @@
         <v>63</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.7">
@@ -5321,7 +8466,7 @@
         <v>149</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.7">
@@ -5338,7 +8483,7 @@
         <v>127</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.7">
@@ -5355,7 +8500,7 @@
         <v>187</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.7">
@@ -5406,7 +8551,7 @@
         <v>198</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.7">
@@ -5440,7 +8585,7 @@
         <v>97</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.7">
@@ -5457,7 +8602,7 @@
         <v>67</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.7">
@@ -5474,7 +8619,7 @@
         <v>106</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.7">
@@ -5491,7 +8636,7 @@
         <v>24</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.7">
@@ -5525,7 +8670,7 @@
         <v>35</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.7">
@@ -5542,7 +8687,7 @@
         <v>154</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.7">
@@ -5576,7 +8721,7 @@
         <v>120</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.7">
@@ -5610,7 +8755,7 @@
         <v>106</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.7">
@@ -5627,7 +8772,7 @@
         <v>141</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.7">
@@ -5712,7 +8857,7 @@
         <v>183</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.7">
@@ -5729,7 +8874,7 @@
         <v>163</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.7">
@@ -5746,7 +8891,7 @@
         <v>184</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.7">
@@ -5797,7 +8942,7 @@
         <v>56</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.7">
@@ -5814,7 +8959,7 @@
         <v>120</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.7">
@@ -5848,7 +8993,7 @@
         <v>99</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.7">
@@ -5865,7 +9010,7 @@
         <v>141</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.7">
@@ -5899,7 +9044,7 @@
         <v>287</v>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.7">
@@ -5933,7 +9078,7 @@
         <v>202</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.7">
@@ -5950,7 +9095,7 @@
         <v>207</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.7">
@@ -5967,7 +9112,7 @@
         <v>129</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.7">
@@ -5984,7 +9129,7 @@
         <v>206</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.7">
@@ -6001,7 +9146,7 @@
         <v>147</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.7">
@@ -6018,7 +9163,7 @@
         <v>87</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.7">
@@ -6035,7 +9180,7 @@
         <v>158</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.7">
@@ -6103,7 +9248,7 @@
         <v>174</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.7">
@@ -6120,7 +9265,7 @@
         <v>222</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.7">
@@ -6137,7 +9282,7 @@
         <v>222</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.7">
@@ -6188,7 +9333,7 @@
         <v>110</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.7">
@@ -6222,7 +9367,7 @@
         <v>120</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.7">
@@ -6256,7 +9401,7 @@
         <v>63</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.7">
@@ -6290,7 +9435,7 @@
         <v>12</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.7">
@@ -6307,7 +9452,7 @@
         <v>130</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.7">
@@ -6324,7 +9469,7 @@
         <v>194</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.7">
@@ -6358,7 +9503,7 @@
         <v>169</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.7">
@@ -6392,7 +9537,7 @@
         <v>185</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.7">
@@ -6426,7 +9571,7 @@
         <v>166</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.7">
@@ -6460,7 +9605,7 @@
         <v>69</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.7">
@@ -6477,7 +9622,7 @@
         <v>187</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.7">
@@ -6545,7 +9690,7 @@
         <v>152</v>
       </c>
       <c r="E122">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.7">
@@ -6579,7 +9724,7 @@
         <v>177</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.7">
@@ -6596,7 +9741,7 @@
         <v>187</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.7">
@@ -6613,7 +9758,7 @@
         <v>149</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.7">
@@ -6630,7 +9775,7 @@
         <v>151</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.7">
@@ -6681,7 +9826,7 @@
         <v>121</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.7">
@@ -6698,7 +9843,7 @@
         <v>183</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.7">
@@ -6715,7 +9860,7 @@
         <v>110</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.7">
@@ -6732,7 +9877,7 @@
         <v>194</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.7">
@@ -6766,7 +9911,7 @@
         <v>131</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.7">
@@ -6783,7 +9928,7 @@
         <v>32</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.7">
@@ -6800,7 +9945,7 @@
         <v>144</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.7">
@@ -6817,7 +9962,7 @@
         <v>49</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.7">
@@ -6834,7 +9979,7 @@
         <v>124</v>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.7">
@@ -6885,7 +10030,7 @@
         <v>128</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.7">
@@ -6902,7 +10047,7 @@
         <v>83</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.7">
@@ -6919,7 +10064,7 @@
         <v>72</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.7">
@@ -6936,7 +10081,7 @@
         <v>145</v>
       </c>
       <c r="E145">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.7">
@@ -6953,7 +10098,7 @@
         <v>161</v>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.7">
@@ -6970,7 +10115,7 @@
         <v>247</v>
       </c>
       <c r="E147">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.7">
@@ -7004,7 +10149,7 @@
         <v>156</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.7">
@@ -7021,7 +10166,7 @@
         <v>143</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.7">
@@ -7055,7 +10200,7 @@
         <v>129</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.7">
@@ -7072,7 +10217,7 @@
         <v>30</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.7">
@@ -7089,7 +10234,7 @@
         <v>69</v>
       </c>
       <c r="E154">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.7">
@@ -7106,7 +10251,7 @@
         <v>134</v>
       </c>
       <c r="E155">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.7">
@@ -7123,7 +10268,7 @@
         <v>148</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.7">
@@ -7140,7 +10285,7 @@
         <v>211</v>
       </c>
       <c r="E157">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.7">
@@ -7157,7 +10302,7 @@
         <v>155</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.7">
@@ -7174,7 +10319,7 @@
         <v>120</v>
       </c>
       <c r="E159">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.7">
@@ -7208,7 +10353,2986 @@
         <v>146</v>
       </c>
       <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting pivot="1" sqref="H3:P8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E74336-1BC9-4F83-A55B-5E71883FCC97}">
+  <dimension ref="A1:Q161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="7" max="17" width="7.3125" customWidth="1"/>
+    <col min="18" max="71" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="4.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7">
+        <v>9</v>
+      </c>
+      <c r="P3" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>240</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>8</v>
+      </c>
+      <c r="K5" s="7">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>154</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7">
+        <v>7</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>98</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>12</v>
+      </c>
+      <c r="M7" s="7">
+        <v>11</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>174</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>5</v>
+      </c>
+      <c r="M8" s="7">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7">
+        <v>14</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>203</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20</v>
+      </c>
+      <c r="I9" s="5">
+        <v>20</v>
+      </c>
+      <c r="J9" s="5">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5">
+        <v>20</v>
+      </c>
+      <c r="L9" s="5">
+        <v>20</v>
+      </c>
+      <c r="M9" s="5">
+        <v>20</v>
+      </c>
+      <c r="N9" s="5">
+        <v>20</v>
+      </c>
+      <c r="O9" s="5">
+        <v>11</v>
+      </c>
+      <c r="P9" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>78</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>83</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>184</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>207</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>126</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>124</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>215</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>146</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>71</v>
+      </c>
+      <c r="D20">
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>103</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>167</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>154</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>93</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <v>136</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>234</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>213</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>254</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>149</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>224</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>140</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>96</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>94</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>147</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>157</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>155</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>187</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>147</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>51</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>94</v>
+      </c>
+      <c r="D49">
+        <v>63</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>149</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>127</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>187</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>86</v>
+      </c>
+      <c r="D53">
+        <v>46</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>112</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>43</v>
+      </c>
+      <c r="D55">
+        <v>198</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>82</v>
+      </c>
+      <c r="D56">
+        <v>28</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>97</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>67</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>65</v>
+      </c>
+      <c r="D59">
+        <v>106</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>36</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>45</v>
+      </c>
+      <c r="D61">
+        <v>104</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>35</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>154</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>98</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>120</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>91</v>
+      </c>
+      <c r="D66">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>106</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>39</v>
+      </c>
+      <c r="D68">
+        <v>141</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>93</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>47</v>
+      </c>
+      <c r="D70">
+        <v>116</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>75</v>
+      </c>
+      <c r="D71">
+        <v>77</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>63</v>
+      </c>
+      <c r="D72">
+        <v>90</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>62</v>
+      </c>
+      <c r="D73">
+        <v>183</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>163</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>23</v>
+      </c>
+      <c r="D75">
+        <v>184</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>63</v>
+      </c>
+      <c r="D76">
+        <v>70</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>123</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>94</v>
+      </c>
+      <c r="D78">
+        <v>56</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>120</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>76</v>
+      </c>
+      <c r="D80">
+        <v>72</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>59</v>
+      </c>
+      <c r="D81">
+        <v>99</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>57</v>
+      </c>
+      <c r="D82">
+        <v>141</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>76</v>
+      </c>
+      <c r="D83">
+        <v>59</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>22</v>
+      </c>
+      <c r="D84">
+        <v>287</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>36</v>
+      </c>
+      <c r="D85">
+        <v>103</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>202</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>26</v>
+      </c>
+      <c r="D87">
+        <v>207</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>67</v>
+      </c>
+      <c r="D88">
+        <v>129</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>33</v>
+      </c>
+      <c r="D89">
+        <v>206</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>17</v>
+      </c>
+      <c r="D90">
+        <v>147</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>26</v>
+      </c>
+      <c r="D91">
+        <v>87</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>57</v>
+      </c>
+      <c r="D92">
+        <v>158</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>71</v>
+      </c>
+      <c r="D93">
+        <v>77</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>91</v>
+      </c>
+      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>57</v>
+      </c>
+      <c r="D95">
+        <v>80</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>174</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>28</v>
+      </c>
+      <c r="D97">
+        <v>222</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+      <c r="D98">
+        <v>222</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>47</v>
+      </c>
+      <c r="D99">
+        <v>59</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>87</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>57</v>
+      </c>
+      <c r="D101">
+        <v>110</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>40</v>
+      </c>
+      <c r="D102">
+        <v>110</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>86</v>
+      </c>
+      <c r="D103">
+        <v>120</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>43</v>
+      </c>
+      <c r="D104">
+        <v>107</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>83</v>
+      </c>
+      <c r="D105">
+        <v>63</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>75</v>
+      </c>
+      <c r="D106">
+        <v>76</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>34</v>
+      </c>
+      <c r="D107">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>21</v>
+      </c>
+      <c r="D108">
+        <v>130</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>23</v>
+      </c>
+      <c r="D109">
+        <v>194</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>83</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>18</v>
+      </c>
+      <c r="D111">
+        <v>169</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>77</v>
+      </c>
+      <c r="D112">
+        <v>64</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>17</v>
+      </c>
+      <c r="D113">
+        <v>185</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>61</v>
+      </c>
+      <c r="D114">
+        <v>90</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+      <c r="D115">
+        <v>166</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>43</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>87</v>
+      </c>
+      <c r="D117">
+        <v>69</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118">
+        <v>187</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>74</v>
+      </c>
+      <c r="D119">
+        <v>86</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>38</v>
+      </c>
+      <c r="D120">
+        <v>100</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>44</v>
+      </c>
+      <c r="D121">
+        <v>115</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>64</v>
+      </c>
+      <c r="D122">
+        <v>152</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>62</v>
+      </c>
+      <c r="D123">
+        <v>92</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>39</v>
+      </c>
+      <c r="D124">
+        <v>177</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>58</v>
+      </c>
+      <c r="D125">
+        <v>187</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>66</v>
+      </c>
+      <c r="D126">
+        <v>149</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>17</v>
+      </c>
+      <c r="D127">
+        <v>151</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>75</v>
+      </c>
+      <c r="D128">
+        <v>62</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>73</v>
+      </c>
+      <c r="D129">
+        <v>81</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>82</v>
+      </c>
+      <c r="D130">
+        <v>121</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>50</v>
+      </c>
+      <c r="D131">
+        <v>183</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>22</v>
+      </c>
+      <c r="D132">
+        <v>110</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>36</v>
+      </c>
+      <c r="D133">
+        <v>194</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>75</v>
+      </c>
+      <c r="D134">
+        <v>32</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>131</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>67</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>46</v>
+      </c>
+      <c r="D137">
+        <v>144</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>74</v>
+      </c>
+      <c r="D138">
+        <v>49</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>61</v>
+      </c>
+      <c r="D139">
+        <v>124</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>80</v>
+      </c>
+      <c r="D140">
+        <v>34</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>90</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>54</v>
+      </c>
+      <c r="D142">
+        <v>128</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>46</v>
+      </c>
+      <c r="D143">
+        <v>83</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>94</v>
+      </c>
+      <c r="D144">
+        <v>72</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>51</v>
+      </c>
+      <c r="D145">
+        <v>145</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>66</v>
+      </c>
+      <c r="D146">
+        <v>161</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>31</v>
+      </c>
+      <c r="D147">
+        <v>247</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>91</v>
+      </c>
+      <c r="D148">
+        <v>30</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>53</v>
+      </c>
+      <c r="D149">
+        <v>156</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>24</v>
+      </c>
+      <c r="D150">
+        <v>143</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>40</v>
+      </c>
+      <c r="D151">
+        <v>122</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>15</v>
+      </c>
+      <c r="D152">
+        <v>129</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>15</v>
+      </c>
+      <c r="D153">
+        <v>30</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>90</v>
+      </c>
+      <c r="D154">
+        <v>69</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>64</v>
+      </c>
+      <c r="D155">
+        <v>134</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>64</v>
+      </c>
+      <c r="D156">
+        <v>148</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>13</v>
+      </c>
+      <c r="D157">
+        <v>211</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>39</v>
+      </c>
+      <c r="D158">
+        <v>155</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>70</v>
+      </c>
+      <c r="D159">
+        <v>120</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>78</v>
+      </c>
+      <c r="D160">
+        <v>46</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>45</v>
+      </c>
+      <c r="D161">
+        <v>146</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
